--- a/Impedance_Potential_Board/Impedance_Potential_BOM_No3p5Audio.xlsx
+++ b/Impedance_Potential_Board/Impedance_Potential_BOM_No3p5Audio.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">1nF Ceramic Capacitor &gt;= 25V</t>
   </si>
   <si>
-    <t xml:space="preserve">C22, C23, C24</t>
+    <t xml:space="preserve">C22, C23</t>
   </si>
   <si>
     <t xml:space="preserve">CL10B473KB8NNNC</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">47nF Ceramic Capacitor &gt;=25V</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R3</t>
+    <t xml:space="preserve">R1, R2</t>
   </si>
   <si>
     <t xml:space="preserve">YAGEO</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">100 100mW Resistor</t>
   </si>
   <si>
-    <t xml:space="preserve">R19, R20, R21, R22, R23</t>
+    <t xml:space="preserve">R19, R20, R21, R22</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603JR-070RL</t>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t xml:space="preserve">0 100mW Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603BRD07200KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C728585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200k Resistor</t>
   </si>
   <si>
     <t xml:space="preserve">D2, D3, D4, D5, D6, D7, D8</t>
@@ -333,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,6 +380,14 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -446,11 +466,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,11 +495,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,11 +531,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,24 +617,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,22 +676,22 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,22 +710,22 @@
         <f aca="false">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -716,22 +744,22 @@
         <f aca="false">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
@@ -750,22 +778,22 @@
         <f aca="false">A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -784,22 +812,22 @@
         <f aca="false">A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
@@ -818,22 +846,22 @@
         <f aca="false">A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
@@ -852,22 +880,22 @@
         <f aca="false">A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
@@ -886,22 +914,22 @@
         <f aca="false">A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>44</v>
       </c>
@@ -920,22 +948,22 @@
         <f aca="false">A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
@@ -954,22 +982,22 @@
         <f aca="false">A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
@@ -988,22 +1016,22 @@
         <f aca="false">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1022,22 +1050,22 @@
         <f aca="false">A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1056,22 +1084,22 @@
         <f aca="false">A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1090,22 +1118,22 @@
         <f aca="false">A14+1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>69</v>
       </c>
@@ -1124,22 +1152,22 @@
         <f aca="false">A15+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="1" t="s">
         <v>73</v>
       </c>
@@ -1158,22 +1186,22 @@
         <f aca="false">A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
@@ -1192,35 +1220,33 @@
         <f aca="false">A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>80</v>
+      <c r="I18" s="1" t="n">
+        <v>603</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.0932</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,124 +1254,159 @@
         <f aca="false">A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>603</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>0.0034</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.0932</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">A19+1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>89</v>
+      <c r="B20" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I20" s="10" t="n">
+        <v>603</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="12" t="n">
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="false">A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>94</v>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="6"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="Samsung Electro-Mechanics"/>
@@ -1396,14 +1457,16 @@
     <hyperlink ref="D17" r:id="rId46" display="YAGEO"/>
     <hyperlink ref="E17" r:id="rId47" display="RC0603JR-070RL"/>
     <hyperlink ref="F17" r:id="rId48" display="C95177"/>
-    <hyperlink ref="D18" r:id="rId49" display="onsemi"/>
-    <hyperlink ref="E18" r:id="rId50" display="ESD7551N2T5G"/>
-    <hyperlink ref="F18" r:id="rId51" display="C5123457"/>
-    <hyperlink ref="E19" r:id="rId52" display="XL-1608UBC-04"/>
-    <hyperlink ref="F19" r:id="rId53" display="C965807"/>
-    <hyperlink ref="D21" r:id="rId54" display="Diodes Incorporated"/>
-    <hyperlink ref="E21" r:id="rId55" display="AP2112K-1.8TRG1"/>
-    <hyperlink ref="F21" r:id="rId56" display="C176944"/>
+    <hyperlink ref="D18" r:id="rId49" display="YAGEO"/>
+    <hyperlink ref="F18" r:id="rId50" display="C728585"/>
+    <hyperlink ref="D19" r:id="rId51" display="onsemi"/>
+    <hyperlink ref="E19" r:id="rId52" display="ESD7551N2T5G"/>
+    <hyperlink ref="F19" r:id="rId53" display="C5123457"/>
+    <hyperlink ref="E20" r:id="rId54" display="XL-1608UBC-04"/>
+    <hyperlink ref="F20" r:id="rId55" display="C965807"/>
+    <hyperlink ref="D22" r:id="rId56" display="Diodes Incorporated"/>
+    <hyperlink ref="E22" r:id="rId57" display="AP2112K-1.8TRG1"/>
+    <hyperlink ref="F22" r:id="rId58" display="C176944"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
